--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="PFSense-OpenVPN-TAP" sheetId="11" r:id="rId1"/>
-    <sheet name="PFSense" sheetId="12" r:id="rId2"/>
+    <sheet name="PFSense-OpenVPN-OpenStack-TUN" sheetId="14" r:id="rId1"/>
+    <sheet name="PFSense-OpenVPN-TAP" sheetId="11" r:id="rId2"/>
+    <sheet name="PFSense" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>eth0</t>
   </si>
@@ -130,6 +131,24 @@
   </si>
   <si>
     <t>client</t>
+  </si>
+  <si>
+    <t>172.16.69.177</t>
+  </si>
+  <si>
+    <t>40.40.40.2</t>
+  </si>
+  <si>
+    <t>40.40.40.3</t>
+  </si>
+  <si>
+    <t>172.16.69.40</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Remote-host</t>
   </si>
 </sst>
 </file>
@@ -310,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -346,6 +365,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,40 +425,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,6 +720,254 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B2:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5703125" style="2" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="23">
+        <v>4</v>
+      </c>
+      <c r="I4" s="23">
+        <v>2</v>
+      </c>
+      <c r="J4" s="25">
+        <v>40</v>
+      </c>
+      <c r="K4" s="27">
+        <v>40</v>
+      </c>
+      <c r="L4" s="20">
+        <v>60</v>
+      </c>
+      <c r="M4" s="20">
+        <v>60</v>
+      </c>
+      <c r="N4" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16">
+        <v>4</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>40</v>
+      </c>
+      <c r="K6" s="18">
+        <v>40</v>
+      </c>
+      <c r="L6" s="19">
+        <v>60</v>
+      </c>
+      <c r="M6" s="19">
+        <v>60</v>
+      </c>
+      <c r="N6" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>40</v>
+      </c>
+      <c r="K7" s="19">
+        <v>40</v>
+      </c>
+      <c r="L7" s="19">
+        <v>60</v>
+      </c>
+      <c r="M7" s="19">
+        <v>60</v>
+      </c>
+      <c r="N7" s="19">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -708,23 +990,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -792,19 +1074,19 @@
       <c r="I4" s="23">
         <v>2</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>40</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>40</v>
       </c>
-      <c r="L4" s="32">
-        <v>60</v>
-      </c>
-      <c r="M4" s="32">
-        <v>60</v>
-      </c>
-      <c r="N4" s="32">
+      <c r="L4" s="20">
+        <v>60</v>
+      </c>
+      <c r="M4" s="20">
+        <v>60</v>
+      </c>
+      <c r="N4" s="20">
         <v>60</v>
       </c>
     </row>
@@ -821,13 +1103,13 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
@@ -842,13 +1124,13 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
@@ -875,19 +1157,19 @@
       <c r="I7" s="23">
         <v>2</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>40</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>40</v>
       </c>
-      <c r="L7" s="32">
-        <v>60</v>
-      </c>
-      <c r="M7" s="32">
-        <v>60</v>
-      </c>
-      <c r="N7" s="32">
+      <c r="L7" s="20">
+        <v>60</v>
+      </c>
+      <c r="M7" s="20">
+        <v>60</v>
+      </c>
+      <c r="N7" s="20">
         <v>60</v>
       </c>
     </row>
@@ -904,13 +1186,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -955,14 +1237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -973,21 +1247,29 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1006,23 +1288,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1090,19 +1372,19 @@
       <c r="I4" s="23">
         <v>2</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>40</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>40</v>
       </c>
-      <c r="L4" s="32">
-        <v>60</v>
-      </c>
-      <c r="M4" s="32">
-        <v>60</v>
-      </c>
-      <c r="N4" s="32">
+      <c r="L4" s="20">
+        <v>60</v>
+      </c>
+      <c r="M4" s="20">
+        <v>60</v>
+      </c>
+      <c r="N4" s="20">
         <v>60</v>
       </c>
     </row>
@@ -1119,16 +1401,16 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
@@ -1140,13 +1422,13 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="PFSense-OpenVPN-OpenStack-TUN" sheetId="14" r:id="rId1"/>
-    <sheet name="PFSense-OpenVPN-TAP" sheetId="11" r:id="rId2"/>
-    <sheet name="PFSense" sheetId="12" r:id="rId3"/>
+    <sheet name="OpenVPN-OpenStack-TUN" sheetId="15" r:id="rId2"/>
+    <sheet name="PFSense-OpenVPN-TAP" sheetId="11" r:id="rId3"/>
+    <sheet name="PFSense" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>eth0</t>
   </si>
@@ -149,6 +150,18 @@
   </si>
   <si>
     <t>Remote-host</t>
+  </si>
+  <si>
+    <t>OpenVPN</t>
+  </si>
+  <si>
+    <t>172.16.69.178</t>
+  </si>
+  <si>
+    <t>20.20.20.4</t>
+  </si>
+  <si>
+    <t>20.20.20.3</t>
   </si>
 </sst>
 </file>
@@ -329,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -386,52 +399,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +751,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -742,23 +770,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -802,7 +830,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -820,30 +848,30 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="33">
         <v>4</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="33">
         <v>2</v>
       </c>
-      <c r="J4" s="25">
-        <v>40</v>
-      </c>
-      <c r="K4" s="27">
-        <v>40</v>
-      </c>
-      <c r="L4" s="20">
-        <v>60</v>
-      </c>
-      <c r="M4" s="20">
-        <v>60</v>
-      </c>
-      <c r="N4" s="20">
+      <c r="J4" s="35">
+        <v>40</v>
+      </c>
+      <c r="K4" s="37">
+        <v>40</v>
+      </c>
+      <c r="L4" s="39">
+        <v>60</v>
+      </c>
+      <c r="M4" s="39">
+        <v>60</v>
+      </c>
+      <c r="N4" s="39">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
@@ -855,13 +883,13 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
@@ -964,6 +992,254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:N7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5703125" style="2" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33">
+        <v>4</v>
+      </c>
+      <c r="I4" s="33">
+        <v>2</v>
+      </c>
+      <c r="J4" s="35">
+        <v>40</v>
+      </c>
+      <c r="K4" s="37">
+        <v>40</v>
+      </c>
+      <c r="L4" s="39">
+        <v>60</v>
+      </c>
+      <c r="M4" s="39">
+        <v>60</v>
+      </c>
+      <c r="N4" s="39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4</v>
+      </c>
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>40</v>
+      </c>
+      <c r="K6" s="24">
+        <v>40</v>
+      </c>
+      <c r="L6" s="20">
+        <v>60</v>
+      </c>
+      <c r="M6" s="20">
+        <v>60</v>
+      </c>
+      <c r="N6" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>40</v>
+      </c>
+      <c r="K7" s="20">
+        <v>40</v>
+      </c>
+      <c r="L7" s="20">
+        <v>60</v>
+      </c>
+      <c r="M7" s="20">
+        <v>60</v>
+      </c>
+      <c r="N7" s="20">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -990,23 +1266,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1050,7 +1326,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1068,30 +1344,30 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="33">
         <v>4</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="33">
         <v>2</v>
       </c>
-      <c r="J4" s="25">
-        <v>40</v>
-      </c>
-      <c r="K4" s="27">
-        <v>40</v>
-      </c>
-      <c r="L4" s="20">
-        <v>60</v>
-      </c>
-      <c r="M4" s="20">
-        <v>60</v>
-      </c>
-      <c r="N4" s="20">
+      <c r="J4" s="35">
+        <v>40</v>
+      </c>
+      <c r="K4" s="37">
+        <v>40</v>
+      </c>
+      <c r="L4" s="39">
+        <v>60</v>
+      </c>
+      <c r="M4" s="39">
+        <v>60</v>
+      </c>
+      <c r="N4" s="39">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1103,16 +1379,16 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1124,16 +1400,16 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1151,30 +1427,30 @@
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="33">
         <v>4</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="33">
         <v>2</v>
       </c>
-      <c r="J7" s="25">
-        <v>40</v>
-      </c>
-      <c r="K7" s="27">
-        <v>40</v>
-      </c>
-      <c r="L7" s="20">
-        <v>60</v>
-      </c>
-      <c r="M7" s="20">
-        <v>60</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="J7" s="35">
+        <v>40</v>
+      </c>
+      <c r="K7" s="37">
+        <v>40</v>
+      </c>
+      <c r="L7" s="39">
+        <v>60</v>
+      </c>
+      <c r="M7" s="39">
+        <v>60</v>
+      </c>
+      <c r="N7" s="39">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
@@ -1186,13 +1462,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -1237,6 +1513,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -1247,21 +1531,13 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1288,23 +1564,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1348,7 +1624,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1366,30 +1642,30 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="33">
         <v>4</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="33">
         <v>2</v>
       </c>
-      <c r="J4" s="25">
-        <v>40</v>
-      </c>
-      <c r="K4" s="27">
-        <v>40</v>
-      </c>
-      <c r="L4" s="20">
-        <v>60</v>
-      </c>
-      <c r="M4" s="20">
-        <v>60</v>
-      </c>
-      <c r="N4" s="20">
+      <c r="J4" s="35">
+        <v>40</v>
+      </c>
+      <c r="K4" s="37">
+        <v>40</v>
+      </c>
+      <c r="L4" s="39">
+        <v>60</v>
+      </c>
+      <c r="M4" s="39">
+        <v>60</v>
+      </c>
+      <c r="N4" s="39">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1401,16 +1677,16 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
@@ -1422,13 +1698,13 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PFSense-OpenVPN-OpenStack-TUN" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
   <si>
     <t>eth0</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>20.20.20.3</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
   </sheetPr>
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -1246,8 +1249,8 @@
   </sheetPr>
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1513,14 +1516,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -1531,6 +1526,14 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
